--- a/Optimization/Gurobi/5 districts/Excel files/8-R to D.xlsx
+++ b/Optimization/Gurobi/5 districts/Excel files/8-R to D.xlsx
@@ -340,12 +340,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>7392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>12768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>7392</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>